--- a/data_excel/NLW.xlsx
+++ b/data_excel/NLW.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="75">
   <si>
     <t>userAge</t>
   </si>
@@ -65,22 +65,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>年龄=35</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>年龄=36</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>年龄_-1缺失</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>年龄_为空缺失</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>zhiMaScore</t>
   </si>
   <si>
@@ -99,19 +87,7 @@
     <t>ED0906</t>
   </si>
   <si>
-    <t>用户芝麻分=650</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户芝麻分=649.9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>用户芝麻分_-1缺失</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户芝麻分_为空缺失</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -187,7 +163,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>7</t>
+      <t>1</t>
     </r>
     <r>
       <rPr>
@@ -197,7 +173,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>天内多头借贷申请次数</t>
+      <t>个月内多头借贷申请次数</t>
     </r>
     <r>
       <rPr>
@@ -206,7 +182,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>_</t>
+      <t>_-1</t>
     </r>
     <r>
       <rPr>
@@ -216,7 +192,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>为空缺失</t>
+      <t>缺失</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -238,7 +214,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>1</t>
+      <t>3</t>
     </r>
     <r>
       <rPr>
@@ -272,6 +248,13 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>ED0905</t>
+  </si>
+  <si>
+    <t>UNHIT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="9"/>
@@ -280,7 +263,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>同盾</t>
+      <t>同盾风险分数</t>
     </r>
     <r>
       <rPr>
@@ -289,7 +272,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>1</t>
+      <t>_-1</t>
     </r>
     <r>
       <rPr>
@@ -299,7 +282,24 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>个月内多头借贷申请次数</t>
+      <t>缺失</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>graduateYears</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>毕业年份</t>
     </r>
     <r>
       <rPr>
@@ -308,7 +308,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>_</t>
+      <t>_-1</t>
     </r>
     <r>
       <rPr>
@@ -318,11 +318,71 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>为空缺失</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
+      <t>缺失</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ED0605</t>
+  </si>
+  <si>
+    <t>NLW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户芝麻分&lt;600</t>
+  </si>
+  <si>
+    <t>年龄=18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年龄=17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同盾7天内多头借贷申请次数&gt;20</t>
+  </si>
+  <si>
+    <t>同盾7天内多头借贷申请次数=20</t>
+  </si>
+  <si>
+    <t>同盾1个月内多头借贷申请次数=50</t>
+  </si>
+  <si>
+    <t>同盾1个月内多头借贷申请次数&gt;50</t>
+  </si>
+  <si>
+    <t>同盾3个月内多头借贷申请次数=83</t>
+  </si>
+  <si>
+    <t>同盾3个月内多头借贷申请次数&gt;83</t>
+  </si>
+  <si>
+    <t>同盾风险分数=100</t>
+  </si>
+  <si>
+    <t>同盾风险分数&gt;100</t>
+  </si>
+  <si>
+    <t>毕业年份=15</t>
+  </si>
+  <si>
+    <t>毕业年份&gt;15</t>
+  </si>
+  <si>
+    <r>
+      <t>天行运营商入网时长</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> 0-3</t>
+    </r>
     <r>
       <rPr>
         <sz val="9"/>
@@ -331,7 +391,48 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>同盾</t>
+      <t>个月</t>
+    </r>
+  </si>
+  <si>
+    <t>0-3个月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>天行运营商入网时长</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> 0-3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>个月</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>天行运营商入网时长</t>
     </r>
     <r>
       <rPr>
@@ -340,7 +441,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>3</t>
+      <t xml:space="preserve"> 3-6</t>
     </r>
     <r>
       <rPr>
@@ -350,7 +451,47 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>个月内多头借贷申请次数</t>
+      <t>个月</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-6个月</t>
+  </si>
+  <si>
+    <t>天行运营商入网时长 6-12个月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6-12个月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天行运营商入网时长 该号码已离网</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该号码已离网</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天行运营商入网时长 0-6个月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-6个月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>天行运营商入网时长</t>
     </r>
     <r>
       <rPr>
@@ -374,6 +515,86 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>onlineTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机使用时长不符合政策</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HIT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ED0608</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机使用时长不符合政策</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HIT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>天行在网时长</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> 3-6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>个月</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ED0608</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ED0608</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机使用时长不符合政策</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HIT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天行在网时长 该号码已离网</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天行在网时长 0-6个月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="9"/>
@@ -382,260 +603,6 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>同盾</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>个月内多头借贷申请次数</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>为空缺失</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ED0905</t>
-  </si>
-  <si>
-    <t>UNHIT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>同盾风险分数</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>为空缺失</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>同盾风险分数</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>_-1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>缺失</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>魔蝎运营商入网时长</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>_-1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>缺失</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>魔蝎运营商入网时长</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>为空缺失</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>graduateYears</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>毕业年份</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>_-1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>缺失</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>毕业年份</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>为空缺失</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ED0605</t>
-  </si>
-  <si>
-    <t>NLW</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>年龄不属于</t>
     </r>
     <r>
@@ -645,221 +612,24 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>[18,35]</t>
-    </r>
-  </si>
-  <si>
-    <t>用户芝麻分&lt;600</t>
-  </si>
-  <si>
-    <t>魔蝎运营商入网时长&lt;6个月</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>魔蝎运营商入网时长</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>=6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>个月</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>魔蝎运营商入网时长</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>&lt;6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>个月</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>年龄=18</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>年龄=17</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>同盾7天内多头借贷申请次数&gt;20</t>
-  </si>
-  <si>
-    <t>同盾7天内多头借贷申请次数=20</t>
-  </si>
-  <si>
-    <t>同盾1个月内多头借贷申请次数=50</t>
-  </si>
-  <si>
-    <t>同盾1个月内多头借贷申请次数&gt;50</t>
-  </si>
-  <si>
-    <t>同盾3个月内多头借贷申请次数=83</t>
-  </si>
-  <si>
-    <t>同盾3个月内多头借贷申请次数&gt;83</t>
-  </si>
-  <si>
-    <t>同盾风险分数=100</t>
-  </si>
-  <si>
-    <t>同盾风险分数&gt;100</t>
-  </si>
-  <si>
-    <t>毕业年份=15</t>
-  </si>
-  <si>
-    <t>毕业年份&gt;15</t>
-  </si>
-  <si>
-    <t>tianXingDuration</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>天行运营商入网时长</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>=180</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>天行运营商入网时长</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>=179</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>天行运营商入网时长</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>=0</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>天行运营商入网时长</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>=-1</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天行在网时长为[0,180)</t>
-  </si>
-  <si>
-    <t>HIT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HIT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HIT</t>
+      <t>[18,37]</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年龄=37</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年龄=38</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户芝麻分=600</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户芝麻分=599.9</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -953,13 +723,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1240,10 +1011,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y84"/>
+  <dimension ref="A1:Y77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="M31" sqref="M31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30:XFD30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1260,31 +1031,31 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
       </c>
       <c r="F1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G1" t="s">
         <v>2</v>
       </c>
       <c r="H1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="K1" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="L1" t="s">
         <v>3</v>
@@ -1298,7 +1069,7 @@
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="B2">
         <v>18</v>
@@ -1331,13 +1102,13 @@
         <v>7</v>
       </c>
       <c r="L2" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
         <v>11</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="Y2" s="3"/>
     </row>
@@ -1376,22 +1147,22 @@
         <v>7</v>
       </c>
       <c r="L3" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="M3" t="s">
         <v>11</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="Y3" s="3"/>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="B4">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1421,19 +1192,19 @@
         <v>7</v>
       </c>
       <c r="L4" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="M4" t="s">
         <v>11</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="Y4" s="3"/>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="B5">
         <v>17</v>
@@ -1466,23 +1237,23 @@
         <v>7</v>
       </c>
       <c r="L5" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="M5" t="s">
         <v>7</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="X5" s="2"/>
       <c r="Y5" s="3"/>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="B6">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -1512,20 +1283,20 @@
         <v>7</v>
       </c>
       <c r="L6" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="M6" t="s">
         <v>7</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="X6" s="2"/>
       <c r="Y6" s="3"/>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B7">
         <v>-1</v>
@@ -1558,23 +1329,26 @@
         <v>7</v>
       </c>
       <c r="L7" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="M7">
         <v>-1</v>
       </c>
       <c r="N7" s="5" t="s">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="X7" s="2"/>
       <c r="Y7" s="3"/>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>73</v>
+      </c>
+      <c r="B8">
+        <v>20</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -1601,26 +1375,25 @@
         <v>7</v>
       </c>
       <c r="L8" t="s">
-        <v>44</v>
-      </c>
-      <c r="M8">
-        <v>-1</v>
-      </c>
-      <c r="N8" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="X8" s="2"/>
+        <v>31</v>
+      </c>
+      <c r="M8" t="s">
+        <v>11</v>
+      </c>
+      <c r="N8" t="s">
+        <v>32</v>
+      </c>
       <c r="Y8" s="3"/>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>74</v>
       </c>
       <c r="B9">
         <v>20</v>
       </c>
       <c r="C9">
-        <v>600</v>
+        <v>599.9</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -1647,25 +1420,25 @@
         <v>7</v>
       </c>
       <c r="L9" t="s">
-        <v>44</v>
-      </c>
-      <c r="M9" t="s">
-        <v>11</v>
+        <v>31</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="N9" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="Y9" s="3"/>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B10">
         <v>20</v>
       </c>
       <c r="C10">
-        <v>599.9</v>
+        <v>-1</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -1692,31 +1465,31 @@
         <v>7</v>
       </c>
       <c r="L10" t="s">
-        <v>44</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>22</v>
+        <v>31</v>
+      </c>
+      <c r="M10">
+        <v>-1</v>
       </c>
       <c r="N10" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="Y10" s="3"/>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>25</v>
+      <c r="A11" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="B11">
         <v>20</v>
       </c>
       <c r="C11">
-        <v>-1</v>
+        <v>650</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -1737,28 +1510,31 @@
         <v>7</v>
       </c>
       <c r="L11" t="s">
-        <v>44</v>
-      </c>
-      <c r="M11">
-        <v>-1</v>
-      </c>
-      <c r="N11" t="s">
-        <v>46</v>
+        <v>31</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N11" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="Y11" s="3"/>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>26</v>
+      <c r="A12" s="5" t="s">
+        <v>36</v>
       </c>
       <c r="B12">
         <v>20</v>
       </c>
+      <c r="C12">
+        <v>650</v>
+      </c>
       <c r="D12">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -1779,19 +1555,19 @@
         <v>7</v>
       </c>
       <c r="L12" t="s">
-        <v>44</v>
-      </c>
-      <c r="M12">
-        <v>-1</v>
-      </c>
-      <c r="N12" t="s">
-        <v>46</v>
+        <v>31</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N12" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="Y12" s="3"/>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="B13">
         <v>20</v>
@@ -1803,7 +1579,7 @@
         <v>65</v>
       </c>
       <c r="E13">
-        <v>21</v>
+        <v>-1</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -1824,19 +1600,19 @@
         <v>7</v>
       </c>
       <c r="L13" t="s">
-        <v>44</v>
-      </c>
-      <c r="M13" s="2" t="s">
-        <v>10</v>
+        <v>31</v>
+      </c>
+      <c r="M13">
+        <v>-1</v>
       </c>
       <c r="N13" s="5" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="Y13" s="3"/>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="B14">
         <v>20</v>
@@ -1848,10 +1624,10 @@
         <v>65</v>
       </c>
       <c r="E14">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1869,19 +1645,19 @@
         <v>7</v>
       </c>
       <c r="L14" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="N14" s="5" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="Y14" s="3"/>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B15">
         <v>20</v>
@@ -1893,10 +1669,10 @@
         <v>65</v>
       </c>
       <c r="E15">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1914,19 +1690,19 @@
         <v>7</v>
       </c>
       <c r="L15" t="s">
-        <v>44</v>
-      </c>
-      <c r="M15">
-        <v>-1</v>
+        <v>31</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="N15" s="5" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="Y15" s="3"/>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B16">
         <v>20</v>
@@ -1937,8 +1713,11 @@
       <c r="D16">
         <v>65</v>
       </c>
+      <c r="E16">
+        <v>5</v>
+      </c>
       <c r="F16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1956,19 +1735,19 @@
         <v>7</v>
       </c>
       <c r="L16" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="M16">
         <v>-1</v>
       </c>
       <c r="N16" s="5" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="Y16" s="3"/>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="B17">
         <v>20</v>
@@ -1983,10 +1762,10 @@
         <v>5</v>
       </c>
       <c r="F17">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -2001,19 +1780,19 @@
         <v>7</v>
       </c>
       <c r="L17" t="s">
-        <v>44</v>
-      </c>
-      <c r="M17" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
+      </c>
+      <c r="M17" t="s">
+        <v>21</v>
       </c>
       <c r="N17" s="5" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="Y17" s="3"/>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="B18">
         <v>20</v>
@@ -2028,10 +1807,10 @@
         <v>5</v>
       </c>
       <c r="F18">
-        <v>51</v>
+        <v>8</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -2046,19 +1825,19 @@
         <v>7</v>
       </c>
       <c r="L18" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N18" s="5" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="Y18" s="3"/>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B19">
         <v>20</v>
@@ -2073,10 +1852,10 @@
         <v>5</v>
       </c>
       <c r="F19">
+        <v>8</v>
+      </c>
+      <c r="G19">
         <v>-1</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -2091,19 +1870,19 @@
         <v>7</v>
       </c>
       <c r="L19" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="M19">
         <v>-1</v>
       </c>
       <c r="N19" s="5" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="Y19" s="3"/>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="B20">
         <v>20</v>
@@ -2117,11 +1896,14 @@
       <c r="E20">
         <v>5</v>
       </c>
+      <c r="F20">
+        <v>8</v>
+      </c>
       <c r="G20">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -2133,19 +1915,20 @@
         <v>7</v>
       </c>
       <c r="L20" t="s">
-        <v>44</v>
-      </c>
-      <c r="M20">
-        <v>-1</v>
+        <v>31</v>
+      </c>
+      <c r="M20" t="s">
+        <v>26</v>
       </c>
       <c r="N20" s="5" t="s">
-        <v>55</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="X20" s="2"/>
       <c r="Y20" s="3"/>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="B21">
         <v>20</v>
@@ -2163,10 +1946,10 @@
         <v>8</v>
       </c>
       <c r="G21">
-        <v>83</v>
+        <v>12</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>100.1</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -2178,19 +1961,19 @@
         <v>7</v>
       </c>
       <c r="L21" t="s">
-        <v>44</v>
-      </c>
-      <c r="M21" t="s">
-        <v>27</v>
+        <v>31</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="N21" s="5" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="Y21" s="3"/>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>20</v>
@@ -2208,10 +1991,10 @@
         <v>8</v>
       </c>
       <c r="G22">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -2223,19 +2006,19 @@
         <v>7</v>
       </c>
       <c r="L22" t="s">
-        <v>44</v>
-      </c>
-      <c r="M22" s="2" t="s">
-        <v>8</v>
+        <v>31</v>
+      </c>
+      <c r="M22">
+        <v>-1</v>
       </c>
       <c r="N22" s="5" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="Y22" s="3"/>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="B23">
         <v>20</v>
@@ -2253,34 +2036,35 @@
         <v>8</v>
       </c>
       <c r="G23">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J23">
         <v>180</v>
       </c>
       <c r="K23">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="L23" t="s">
+        <v>31</v>
+      </c>
+      <c r="M23" t="s">
+        <v>11</v>
+      </c>
+      <c r="N23" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="M23">
-        <v>-1</v>
-      </c>
-      <c r="N23" s="5" t="s">
-        <v>57</v>
-      </c>
+      <c r="X23" s="2"/>
       <c r="Y23" s="3"/>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="B24">
         <v>20</v>
@@ -2297,32 +2081,35 @@
       <c r="F24">
         <v>8</v>
       </c>
+      <c r="G24">
+        <v>12</v>
+      </c>
       <c r="H24">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J24">
         <v>180</v>
       </c>
       <c r="K24">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="L24" t="s">
+        <v>31</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N24" s="5" t="s">
         <v>44</v>
-      </c>
-      <c r="M24">
-        <v>-1</v>
-      </c>
-      <c r="N24" s="5" t="s">
-        <v>57</v>
       </c>
       <c r="Y24" s="3"/>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="B25">
         <v>20</v>
@@ -2343,32 +2130,31 @@
         <v>12</v>
       </c>
       <c r="H25">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J25">
         <v>180</v>
       </c>
       <c r="K25">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="L25" t="s">
+        <v>31</v>
+      </c>
+      <c r="M25">
+        <v>-1</v>
+      </c>
+      <c r="N25" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="M25" t="s">
-        <v>35</v>
-      </c>
-      <c r="N25" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="X25" s="2"/>
       <c r="Y25" s="3"/>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A26" s="5" t="s">
-        <v>59</v>
+      <c r="A26" s="6" t="s">
+        <v>45</v>
       </c>
       <c r="B26">
         <v>20</v>
@@ -2389,31 +2175,33 @@
         <v>12</v>
       </c>
       <c r="H26">
-        <v>100.1</v>
+        <v>25</v>
       </c>
       <c r="I26">
-        <v>0</v>
-      </c>
-      <c r="J26">
-        <v>180</v>
+        <v>12</v>
+      </c>
+      <c r="J26" t="s">
+        <v>46</v>
       </c>
       <c r="K26">
         <v>7</v>
       </c>
       <c r="L26" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="N26" s="5" t="s">
         <v>59</v>
       </c>
+      <c r="N26" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="O26" s="3"/>
+      <c r="X26" s="2"/>
       <c r="Y26" s="3"/>
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A27" s="5" t="s">
-        <v>37</v>
+      <c r="A27" s="6" t="s">
+        <v>45</v>
       </c>
       <c r="B27">
         <v>20</v>
@@ -2434,31 +2222,33 @@
         <v>12</v>
       </c>
       <c r="H27">
-        <v>-1</v>
+        <v>25</v>
       </c>
       <c r="I27">
-        <v>0</v>
-      </c>
-      <c r="J27">
-        <v>180</v>
+        <v>12</v>
+      </c>
+      <c r="J27" t="s">
+        <v>46</v>
       </c>
       <c r="K27">
         <v>7</v>
       </c>
       <c r="L27" t="s">
-        <v>44</v>
-      </c>
-      <c r="M27">
-        <v>-1</v>
-      </c>
-      <c r="N27" s="5" t="s">
-        <v>59</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="N27" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="O27" s="3"/>
+      <c r="X27" s="2"/>
       <c r="Y27" s="3"/>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A28" s="5" t="s">
-        <v>36</v>
+      <c r="A28" s="6" t="s">
+        <v>48</v>
       </c>
       <c r="B28">
         <v>20</v>
@@ -2478,28 +2268,32 @@
       <c r="G28">
         <v>12</v>
       </c>
+      <c r="H28">
+        <v>25</v>
+      </c>
       <c r="I28">
-        <v>0</v>
-      </c>
-      <c r="J28">
-        <v>180</v>
+        <v>12</v>
+      </c>
+      <c r="J28" t="s">
+        <v>49</v>
       </c>
       <c r="K28">
         <v>7</v>
       </c>
       <c r="L28" t="s">
-        <v>44</v>
-      </c>
-      <c r="M28">
-        <v>-1</v>
-      </c>
-      <c r="N28" s="5" t="s">
-        <v>59</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="N28" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="O28" s="3"/>
       <c r="Y28" s="3"/>
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="6" t="s">
         <v>48</v>
       </c>
       <c r="B29">
@@ -2524,29 +2318,29 @@
         <v>25</v>
       </c>
       <c r="I29">
-        <v>6</v>
-      </c>
-      <c r="J29">
-        <v>180</v>
+        <v>12</v>
+      </c>
+      <c r="J29" t="s">
+        <v>49</v>
       </c>
       <c r="K29">
         <v>7</v>
       </c>
       <c r="L29" t="s">
-        <v>44</v>
-      </c>
-      <c r="M29" t="s">
-        <v>11</v>
-      </c>
-      <c r="N29" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="X29" s="2"/>
-      <c r="Y29" s="4"/>
+        <v>31</v>
+      </c>
+      <c r="M29" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="N29" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="O29" s="3"/>
+      <c r="Y29" s="3"/>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A30" s="5" t="s">
-        <v>49</v>
+      <c r="A30" s="6" t="s">
+        <v>50</v>
       </c>
       <c r="B30">
         <v>20</v>
@@ -2570,28 +2364,29 @@
         <v>25</v>
       </c>
       <c r="I30">
-        <v>5</v>
-      </c>
-      <c r="J30">
-        <v>180</v>
+        <v>12</v>
+      </c>
+      <c r="J30" t="s">
+        <v>51</v>
       </c>
       <c r="K30">
         <v>7</v>
       </c>
       <c r="L30" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="N30" s="5" t="s">
-        <v>47</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="N30" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="O30" s="3"/>
       <c r="Y30" s="3"/>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A31" s="5" t="s">
-        <v>38</v>
+      <c r="A31" s="6" t="s">
+        <v>52</v>
       </c>
       <c r="B31">
         <v>20</v>
@@ -2615,28 +2410,29 @@
         <v>25</v>
       </c>
       <c r="I31">
-        <v>-1</v>
-      </c>
-      <c r="J31">
-        <v>180</v>
+        <v>12</v>
+      </c>
+      <c r="J31" t="s">
+        <v>53</v>
       </c>
       <c r="K31">
         <v>7</v>
       </c>
       <c r="L31" t="s">
-        <v>44</v>
-      </c>
-      <c r="M31">
-        <v>-1</v>
-      </c>
-      <c r="N31" s="5" t="s">
-        <v>47</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="M31" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="N31" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="O31" s="3"/>
       <c r="Y31" s="3"/>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A32" s="5" t="s">
-        <v>39</v>
+      <c r="A32" s="6" t="s">
+        <v>52</v>
       </c>
       <c r="B32">
         <v>20</v>
@@ -2659,26 +2455,30 @@
       <c r="H32">
         <v>25</v>
       </c>
-      <c r="J32">
-        <v>180</v>
+      <c r="I32">
+        <v>12</v>
+      </c>
+      <c r="J32" t="s">
+        <v>53</v>
       </c>
       <c r="K32">
         <v>7</v>
       </c>
       <c r="L32" t="s">
-        <v>44</v>
-      </c>
-      <c r="M32">
-        <v>-1</v>
-      </c>
-      <c r="N32" s="5" t="s">
-        <v>47</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="M32" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="N32" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="O32" s="3"/>
       <c r="Y32" s="3"/>
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A33" s="5" t="s">
-        <v>60</v>
+      <c r="A33" s="6" t="s">
+        <v>54</v>
       </c>
       <c r="B33">
         <v>20</v>
@@ -2704,27 +2504,27 @@
       <c r="I33">
         <v>12</v>
       </c>
-      <c r="J33">
-        <v>180</v>
+      <c r="J33" t="s">
+        <v>55</v>
       </c>
       <c r="K33">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="L33" t="s">
-        <v>44</v>
-      </c>
-      <c r="M33" t="s">
-        <v>11</v>
-      </c>
-      <c r="N33" s="5" t="s">
-        <v>61</v>
+        <v>31</v>
+      </c>
+      <c r="M33" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="N33" s="4" t="s">
+        <v>69</v>
       </c>
       <c r="X33" s="2"/>
       <c r="Y33" s="3"/>
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A34" s="5" t="s">
-        <v>61</v>
+      <c r="A34" s="6" t="s">
+        <v>54</v>
       </c>
       <c r="B34">
         <v>20</v>
@@ -2750,26 +2550,27 @@
       <c r="I34">
         <v>12</v>
       </c>
-      <c r="J34">
-        <v>180</v>
+      <c r="J34" t="s">
+        <v>55</v>
       </c>
       <c r="K34">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="L34" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="N34" s="5" t="s">
-        <v>61</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="N34" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="X34" s="2"/>
       <c r="Y34" s="3"/>
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="B35">
         <v>20</v>
@@ -2793,257 +2594,60 @@
         <v>25</v>
       </c>
       <c r="I35">
-        <v>12</v>
+        <v>-1</v>
       </c>
       <c r="J35">
-        <v>180</v>
+        <v>-1</v>
       </c>
       <c r="K35">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L35" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="M35">
         <v>-1</v>
       </c>
-      <c r="N35" s="5" t="s">
-        <v>61</v>
+      <c r="N35" s="4" t="s">
+        <v>58</v>
       </c>
       <c r="Y35" s="3"/>
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A36" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B36">
-        <v>20</v>
-      </c>
-      <c r="C36">
-        <v>650</v>
-      </c>
-      <c r="D36">
-        <v>65</v>
-      </c>
-      <c r="E36">
-        <v>5</v>
-      </c>
-      <c r="F36">
-        <v>8</v>
-      </c>
-      <c r="G36">
-        <v>12</v>
-      </c>
-      <c r="H36">
-        <v>25</v>
-      </c>
-      <c r="I36">
-        <v>12</v>
-      </c>
-      <c r="J36">
-        <v>180</v>
-      </c>
-      <c r="L36" t="s">
-        <v>44</v>
-      </c>
-      <c r="M36">
-        <v>-1</v>
-      </c>
-      <c r="N36" s="5" t="s">
-        <v>61</v>
-      </c>
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
       <c r="Y36" s="3"/>
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A37" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="B37">
-        <v>20</v>
-      </c>
-      <c r="C37">
-        <v>650</v>
-      </c>
-      <c r="D37">
-        <v>65</v>
-      </c>
-      <c r="E37">
-        <v>5</v>
-      </c>
-      <c r="F37">
-        <v>8</v>
-      </c>
-      <c r="G37">
-        <v>12</v>
-      </c>
-      <c r="H37">
-        <v>25</v>
-      </c>
-      <c r="I37">
-        <v>6</v>
-      </c>
-      <c r="J37">
-        <v>180</v>
-      </c>
-      <c r="K37">
-        <v>7</v>
-      </c>
-      <c r="L37" t="s">
-        <v>44</v>
-      </c>
-      <c r="M37" t="s">
-        <v>11</v>
-      </c>
-      <c r="N37" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="X37" s="2"/>
-      <c r="Y37" s="3"/>
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="Y37" s="4"/>
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A38" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="B38">
-        <v>20</v>
-      </c>
-      <c r="C38">
-        <v>650</v>
-      </c>
-      <c r="D38">
-        <v>65</v>
-      </c>
-      <c r="E38">
-        <v>5</v>
-      </c>
-      <c r="F38">
-        <v>8</v>
-      </c>
-      <c r="G38">
-        <v>12</v>
-      </c>
-      <c r="H38">
-        <v>25</v>
-      </c>
-      <c r="I38">
-        <v>6</v>
-      </c>
-      <c r="J38">
-        <v>179</v>
-      </c>
-      <c r="K38">
-        <v>7</v>
-      </c>
-      <c r="L38" t="s">
-        <v>44</v>
-      </c>
-      <c r="M38" t="s">
-        <v>68</v>
-      </c>
-      <c r="N38" s="3" t="s">
-        <v>67</v>
-      </c>
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="X38" s="2"/>
       <c r="Y38" s="3"/>
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A39" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B39">
-        <v>20</v>
-      </c>
-      <c r="C39">
-        <v>650</v>
-      </c>
-      <c r="D39">
-        <v>65</v>
-      </c>
-      <c r="E39">
-        <v>5</v>
-      </c>
-      <c r="F39">
-        <v>8</v>
-      </c>
-      <c r="G39">
-        <v>12</v>
-      </c>
-      <c r="H39">
-        <v>25</v>
-      </c>
-      <c r="I39">
-        <v>6</v>
-      </c>
-      <c r="J39">
-        <v>0</v>
-      </c>
-      <c r="K39">
-        <v>7</v>
-      </c>
-      <c r="L39" t="s">
-        <v>44</v>
-      </c>
-      <c r="M39" t="s">
-        <v>69</v>
-      </c>
-      <c r="N39" s="3" t="s">
-        <v>67</v>
-      </c>
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
       <c r="Y39" s="3"/>
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A40" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="B40">
-        <v>20</v>
-      </c>
-      <c r="C40">
-        <v>650</v>
-      </c>
-      <c r="D40">
-        <v>65</v>
-      </c>
-      <c r="E40">
-        <v>5</v>
-      </c>
-      <c r="F40">
-        <v>8</v>
-      </c>
-      <c r="G40">
-        <v>12</v>
-      </c>
-      <c r="H40">
-        <v>25</v>
-      </c>
-      <c r="I40">
-        <v>6</v>
-      </c>
-      <c r="J40">
-        <v>-1</v>
-      </c>
-      <c r="K40">
-        <v>7</v>
-      </c>
-      <c r="L40" t="s">
-        <v>44</v>
-      </c>
-      <c r="M40">
-        <v>-1</v>
-      </c>
-      <c r="N40" s="3" t="s">
-        <v>67</v>
-      </c>
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
       <c r="Y40" s="3"/>
     </row>
     <row r="41" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
-      <c r="X41" s="2"/>
-      <c r="Y41" s="3"/>
+      <c r="Y41" s="4"/>
     </row>
     <row r="42" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
+      <c r="X42" s="2"/>
       <c r="Y42" s="3"/>
     </row>
     <row r="43" spans="1:25" x14ac:dyDescent="0.2">
@@ -3054,17 +2658,17 @@
     <row r="44" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
-      <c r="Y44" s="4"/>
+      <c r="Y44" s="3"/>
     </row>
     <row r="45" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
-      <c r="X45" s="2"/>
-      <c r="Y45" s="3"/>
+      <c r="Y45" s="4"/>
     </row>
     <row r="46" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
+      <c r="X46" s="2"/>
       <c r="Y46" s="3"/>
     </row>
     <row r="47" spans="1:25" x14ac:dyDescent="0.2">
@@ -3075,17 +2679,17 @@
     <row r="48" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
-      <c r="Y48" s="4"/>
+      <c r="Y48" s="3"/>
     </row>
     <row r="49" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
-      <c r="X49" s="2"/>
       <c r="Y49" s="3"/>
     </row>
     <row r="50" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
+      <c r="X50" s="2"/>
       <c r="Y50" s="3"/>
     </row>
     <row r="51" spans="1:25" x14ac:dyDescent="0.2">
@@ -3096,44 +2700,37 @@
     <row r="52" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
-      <c r="Y52" s="4"/>
+      <c r="Y52" s="3"/>
     </row>
     <row r="53" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
-      <c r="X53" s="2"/>
-      <c r="Y53" s="3"/>
     </row>
     <row r="54" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
-      <c r="Y54" s="3"/>
+      <c r="X54" s="2"/>
     </row>
     <row r="55" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
-      <c r="Y55" s="3"/>
     </row>
     <row r="56" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
-      <c r="Y56" s="3"/>
     </row>
     <row r="57" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
-      <c r="X57" s="2"/>
-      <c r="Y57" s="3"/>
     </row>
     <row r="58" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
-      <c r="Y58" s="3"/>
+      <c r="X58" s="2"/>
     </row>
     <row r="59" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
-      <c r="Y59" s="3"/>
     </row>
     <row r="60" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A60" s="3"/>
@@ -3142,32 +2739,39 @@
     <row r="61" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
-      <c r="X61" s="2"/>
+      <c r="Y61" s="3"/>
     </row>
     <row r="62" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
+      <c r="X62" s="2"/>
+      <c r="Y62" s="3"/>
     </row>
     <row r="63" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
+      <c r="Y63" s="3"/>
     </row>
     <row r="64" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
+      <c r="Y64" s="3"/>
     </row>
     <row r="65" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
-      <c r="X65" s="2"/>
+      <c r="Y65" s="3"/>
     </row>
     <row r="66" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
+      <c r="X66" s="2"/>
+      <c r="Y66" s="3"/>
     </row>
     <row r="67" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
+      <c r="Y67" s="3"/>
     </row>
     <row r="68" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A68" s="3"/>
@@ -3177,28 +2781,27 @@
     <row r="69" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
-      <c r="X69" s="2"/>
-      <c r="Y69" s="3"/>
+      <c r="Y69" s="4"/>
     </row>
     <row r="70" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
-      <c r="Y70" s="3"/>
+      <c r="X70" s="2"/>
+      <c r="Y70" s="4"/>
     </row>
     <row r="71" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
-      <c r="Y71" s="3"/>
+      <c r="Y71" s="4"/>
     </row>
     <row r="72" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
-      <c r="Y72" s="3"/>
+      <c r="Y72" s="4"/>
     </row>
     <row r="73" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
-      <c r="X73" s="2"/>
       <c r="Y73" s="3"/>
     </row>
     <row r="74" spans="1:25" x14ac:dyDescent="0.2">
@@ -3212,50 +2815,14 @@
       <c r="Y75" s="3"/>
     </row>
     <row r="76" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A76" s="3"/>
-      <c r="B76" s="3"/>
-      <c r="Y76" s="4"/>
+      <c r="A76" s="4"/>
+      <c r="B76" s="4"/>
+      <c r="Y76" s="3"/>
     </row>
     <row r="77" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
-      <c r="X77" s="2"/>
-      <c r="Y77" s="4"/>
-    </row>
-    <row r="78" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A78" s="3"/>
-      <c r="B78" s="3"/>
-      <c r="Y78" s="4"/>
-    </row>
-    <row r="79" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A79" s="3"/>
-      <c r="B79" s="3"/>
-      <c r="Y79" s="4"/>
-    </row>
-    <row r="80" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A80" s="3"/>
-      <c r="B80" s="3"/>
-      <c r="Y80" s="3"/>
-    </row>
-    <row r="81" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A81" s="3"/>
-      <c r="B81" s="3"/>
-      <c r="Y81" s="3"/>
-    </row>
-    <row r="82" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A82" s="3"/>
-      <c r="B82" s="3"/>
-      <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A83" s="4"/>
-      <c r="B83" s="4"/>
-      <c r="Y83" s="3"/>
-    </row>
-    <row r="84" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A84" s="3"/>
-      <c r="B84" s="3"/>
-      <c r="Y84" s="3"/>
+      <c r="Y77" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
